--- a/static/data/작업공수/작업계획.xlsx
+++ b/static/data/작업공수/작업계획.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M16"/>
+  <dimension ref="A1:O19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -490,15 +490,25 @@
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
+          <t>총공수</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
           <t>목표공수</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>도급/직영</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>작업진행률</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>KEY</t>
         </is>
@@ -540,12 +550,20 @@
       <c r="K2" t="n">
         <v>2</v>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="L2" t="n">
+        <v>2</v>
+      </c>
+      <c r="M2" t="inlineStr">
         <is>
           <t>도급</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
         <is>
           <t>LDQ3277</t>
         </is>
@@ -589,12 +607,20 @@
       <c r="K3" t="n">
         <v>11</v>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="L3" t="n">
+        <v>11</v>
+      </c>
+      <c r="M3" t="inlineStr">
         <is>
           <t>도급</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
         <is>
           <t>ZEE5695</t>
         </is>
@@ -638,12 +664,20 @@
       <c r="K4" t="n">
         <v>5</v>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="L4" t="n">
+        <v>5</v>
+      </c>
+      <c r="M4" t="inlineStr">
         <is>
           <t>도급</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
         <is>
           <t>YCP4453</t>
         </is>
@@ -687,12 +721,20 @@
       <c r="K5" t="n">
         <v>4</v>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="L5" t="n">
+        <v>4</v>
+      </c>
+      <c r="M5" t="inlineStr">
         <is>
           <t>도급</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
         <is>
           <t>HRE6178</t>
         </is>
@@ -734,14 +776,22 @@
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="n">
+        <v>5</v>
+      </c>
+      <c r="L6" t="n">
         <v>3</v>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>도급</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
         <is>
           <t>TSP3579</t>
         </is>
@@ -785,12 +835,20 @@
       <c r="K7" t="n">
         <v>4</v>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="L7" t="n">
+        <v>4</v>
+      </c>
+      <c r="M7" t="inlineStr">
         <is>
           <t>도급</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
         <is>
           <t>LDQ3277</t>
         </is>
@@ -834,12 +892,20 @@
       <c r="K8" t="n">
         <v>4</v>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="L8" t="n">
+        <v>4</v>
+      </c>
+      <c r="M8" t="inlineStr">
         <is>
           <t>도급</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
         <is>
           <t>SZB6544</t>
         </is>
@@ -881,14 +947,22 @@
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="n">
+        <v>5</v>
+      </c>
+      <c r="L9" t="n">
         <v>6</v>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="M9" t="inlineStr">
         <is>
           <t>도급</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr">
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
         <is>
           <t>XSZ1339</t>
         </is>
@@ -932,12 +1006,20 @@
       <c r="K10" t="n">
         <v>4</v>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="L10" t="n">
+        <v>4</v>
+      </c>
+      <c r="M10" t="inlineStr">
         <is>
           <t>도급</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr">
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
         <is>
           <t>VGB9612</t>
         </is>
@@ -981,12 +1063,20 @@
       <c r="K11" t="n">
         <v>4</v>
       </c>
-      <c r="L11" t="inlineStr">
+      <c r="L11" t="n">
+        <v>4</v>
+      </c>
+      <c r="M11" t="inlineStr">
         <is>
           <t>도급</t>
         </is>
       </c>
-      <c r="M11" t="inlineStr">
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
         <is>
           <t>VGB9612</t>
         </is>
@@ -1030,12 +1120,20 @@
       <c r="K12" t="n">
         <v>3</v>
       </c>
-      <c r="L12" t="inlineStr">
+      <c r="L12" t="n">
+        <v>3</v>
+      </c>
+      <c r="M12" t="inlineStr">
         <is>
           <t xml:space="preserve">직영 </t>
         </is>
       </c>
-      <c r="M12" t="inlineStr">
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
         <is>
           <t>NBZ5197</t>
         </is>
@@ -1077,14 +1175,22 @@
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
         <v>1</v>
       </c>
-      <c r="L13" t="inlineStr">
+      <c r="M13" t="inlineStr">
         <is>
           <t>도급</t>
         </is>
       </c>
-      <c r="M13" t="inlineStr">
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>75%</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
         <is>
           <t>XVB9362</t>
         </is>
@@ -1126,14 +1232,22 @@
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="n">
+        <v>20</v>
+      </c>
+      <c r="L14" t="n">
         <v>30</v>
       </c>
-      <c r="L14" t="inlineStr">
+      <c r="M14" t="inlineStr">
         <is>
           <t xml:space="preserve">직영 </t>
         </is>
       </c>
-      <c r="M14" t="inlineStr">
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>65%</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
         <is>
           <t>KNW7505</t>
         </is>
@@ -1177,12 +1291,20 @@
       <c r="K15" t="n">
         <v>5</v>
       </c>
-      <c r="L15" t="inlineStr">
+      <c r="L15" t="n">
+        <v>5</v>
+      </c>
+      <c r="M15" t="inlineStr">
         <is>
           <t>도급</t>
         </is>
       </c>
-      <c r="M15" t="inlineStr">
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
         <is>
           <t>EIN8370</t>
         </is>
@@ -1224,16 +1346,195 @@
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
         <v>2</v>
       </c>
-      <c r="L16" t="inlineStr">
+      <c r="M16" t="inlineStr">
         <is>
           <t>직영</t>
         </is>
       </c>
-      <c r="M16" t="inlineStr">
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
         <is>
           <t>UDM9790</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>2025-01-31</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>마곡</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>바닥 및 보</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>아기사리 작업</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr"/>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>50</v>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>도급</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>HMT9220</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>2025-01-31</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>마곡</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>코어 벽체</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>거푸집 작업</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr"/>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>5</v>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>도급</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>WFA7876</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>2025-02-01</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>마곡</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>바닥 및 보</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>단열재 작업</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr"/>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" t="n">
+        <v>50</v>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>도급</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>TBS7596</t>
         </is>
       </c>
     </row>

--- a/static/data/작업공수/작업계획.xlsx
+++ b/static/data/작업공수/작업계획.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O19"/>
+  <dimension ref="A1:P21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -513,6 +513,11 @@
           <t>KEY</t>
         </is>
       </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>공수</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -568,6 +573,7 @@
           <t>LDQ3277</t>
         </is>
       </c>
+      <c r="P2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -625,6 +631,7 @@
           <t>ZEE5695</t>
         </is>
       </c>
+      <c r="P3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -682,6 +689,7 @@
           <t>YCP4453</t>
         </is>
       </c>
+      <c r="P4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -739,6 +747,7 @@
           <t>HRE6178</t>
         </is>
       </c>
+      <c r="P5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -796,6 +805,7 @@
           <t>TSP3579</t>
         </is>
       </c>
+      <c r="P6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -853,6 +863,7 @@
           <t>LDQ3277</t>
         </is>
       </c>
+      <c r="P7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -910,6 +921,7 @@
           <t>SZB6544</t>
         </is>
       </c>
+      <c r="P8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -967,6 +979,7 @@
           <t>XSZ1339</t>
         </is>
       </c>
+      <c r="P9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1024,6 +1037,7 @@
           <t>VGB9612</t>
         </is>
       </c>
+      <c r="P10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1081,6 +1095,7 @@
           <t>VGB9612</t>
         </is>
       </c>
+      <c r="P11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1138,6 +1153,7 @@
           <t>NBZ5197</t>
         </is>
       </c>
+      <c r="P12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1195,6 +1211,7 @@
           <t>XVB9362</t>
         </is>
       </c>
+      <c r="P13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1252,6 +1269,7 @@
           <t>KNW7505</t>
         </is>
       </c>
+      <c r="P14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1309,6 +1327,7 @@
           <t>EIN8370</t>
         </is>
       </c>
+      <c r="P15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1366,6 +1385,7 @@
           <t>UDM9790</t>
         </is>
       </c>
+      <c r="P16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1423,6 +1443,7 @@
           <t>HMT9220</t>
         </is>
       </c>
+      <c r="P17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1480,6 +1501,7 @@
           <t>WFA7876</t>
         </is>
       </c>
+      <c r="P18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1537,6 +1559,131 @@
           <t>TBS7596</t>
         </is>
       </c>
+      <c r="P19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>2025-02-27</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>마곡</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>2F(3층바닥)</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>형틀</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>합벽</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>adadvadfvadfv</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr"/>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>30</v>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>도급</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>TUX5148</t>
+        </is>
+      </c>
+      <c r="P20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>2025-02-27</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>안양</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>1F(2층바닥)</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>형틀</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>코아</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>adfvadfvadfbadbf</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr"/>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" t="n">
+        <v>25</v>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>도급</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>ZOT9439</t>
+        </is>
+      </c>
+      <c r="P21" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/static/data/작업공수/작업계획.xlsx
+++ b/static/data/작업공수/작업계획.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P21"/>
+  <dimension ref="A1:O21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -513,11 +513,6 @@
           <t>KEY</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>공수</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -530,7 +525,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>B1</t>
+          <t>B1층</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -540,7 +535,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>??</t>
+          <t>형틀</t>
         </is>
       </c>
       <c r="F2" t="inlineStr"/>
@@ -573,7 +568,6 @@
           <t>LDQ3277</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -588,7 +582,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>10층</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -598,7 +592,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>??</t>
+          <t>형틀</t>
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
@@ -631,7 +625,6 @@
           <t>ZEE5695</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -646,7 +639,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>B4</t>
+          <t>B4층</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -656,7 +649,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>??</t>
+          <t>형틀</t>
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
@@ -689,7 +682,6 @@
           <t>YCP4453</t>
         </is>
       </c>
-      <c r="P4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -704,7 +696,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>1층</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -714,10 +706,14 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>??</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr"/>
+          <t>형틀</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>코아</t>
+        </is>
+      </c>
       <c r="G5" t="inlineStr">
         <is>
           <t>코어 본관동 옥탑 사무동 패드 및 난간 작업</t>
@@ -747,7 +743,6 @@
           <t>HRE6178</t>
         </is>
       </c>
-      <c r="P5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -762,7 +757,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>B1</t>
+          <t>B1층</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -772,7 +767,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>??</t>
+          <t>형틀</t>
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
@@ -805,7 +800,6 @@
           <t>TSP3579</t>
         </is>
       </c>
-      <c r="P6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -820,7 +814,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>B1</t>
+          <t>B1층</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -830,7 +824,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>??</t>
+          <t>형틀</t>
         </is>
       </c>
       <c r="F7" t="inlineStr"/>
@@ -863,7 +857,6 @@
           <t>LDQ3277</t>
         </is>
       </c>
-      <c r="P7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -878,7 +871,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>B1</t>
+          <t>B1층</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -888,10 +881,14 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>??</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr"/>
+          <t>형틀</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>코아</t>
+        </is>
+      </c>
       <c r="G8" t="inlineStr">
         <is>
           <t>코어 공구리망 작업</t>
@@ -921,7 +918,6 @@
           <t>SZB6544</t>
         </is>
       </c>
-      <c r="P8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -936,7 +932,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>5층</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -946,10 +942,14 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>??</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr"/>
+          <t>형틀</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>바닥 및 보</t>
+        </is>
+      </c>
       <c r="G9" t="inlineStr">
         <is>
           <t>바닥 및 보 거푸집 설치</t>
@@ -979,7 +979,6 @@
           <t>XSZ1339</t>
         </is>
       </c>
-      <c r="P9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -994,7 +993,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>12층</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -1004,10 +1003,14 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>??</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr"/>
+          <t>형틀</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>코아</t>
+        </is>
+      </c>
       <c r="G10" t="inlineStr">
         <is>
           <t>코어 벽체  알폼 자재 양중 작업</t>
@@ -1037,7 +1040,6 @@
           <t>VGB9612</t>
         </is>
       </c>
-      <c r="P10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1052,7 +1054,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>12층</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -1062,10 +1064,14 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>??</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr"/>
+          <t>형틀</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>코아</t>
+        </is>
+      </c>
       <c r="G11" t="inlineStr">
         <is>
           <t>코어 벽체  알폼 자재 양중 작업</t>
@@ -1095,7 +1101,6 @@
           <t>VGB9612</t>
         </is>
       </c>
-      <c r="P11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1110,7 +1115,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>8층</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -1120,10 +1125,14 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>??</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr"/>
+          <t>형틀</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>바닥 및 보</t>
+        </is>
+      </c>
       <c r="G12" t="inlineStr">
         <is>
           <t>바닥 및 보 서포트 해체 작업</t>
@@ -1153,7 +1162,6 @@
           <t>NBZ5197</t>
         </is>
       </c>
-      <c r="P12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1168,7 +1176,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>11층</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -1178,10 +1186,14 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>??</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr"/>
+          <t>형틀</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>코아</t>
+        </is>
+      </c>
       <c r="G13" t="inlineStr">
         <is>
           <t>코어 벽체 하부자키 및 요꼬 다대 작업</t>
@@ -1191,7 +1203,7 @@
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L13" t="n">
         <v>1</v>
@@ -1203,7 +1215,7 @@
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>75%</t>
+          <t>80%</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
@@ -1211,7 +1223,6 @@
           <t>XVB9362</t>
         </is>
       </c>
-      <c r="P13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1226,7 +1237,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>11층</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -1236,10 +1247,14 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>??</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr"/>
+          <t>형틀</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>코아</t>
+        </is>
+      </c>
       <c r="G14" t="inlineStr">
         <is>
           <t>코어 벽체 부분 해체 기준목 설치 작업</t>
@@ -1269,7 +1284,6 @@
           <t>KNW7505</t>
         </is>
       </c>
-      <c r="P14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1284,7 +1298,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>11층</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1292,7 +1306,11 @@
           <t>B</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr"/>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>형틀</t>
+        </is>
+      </c>
       <c r="F15" t="inlineStr">
         <is>
           <t>바닥 및 보</t>
@@ -1327,7 +1345,6 @@
           <t>EIN8370</t>
         </is>
       </c>
-      <c r="P15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1342,7 +1359,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>전체층</t>
+          <t>전체</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1350,7 +1367,11 @@
           <t>기타</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr"/>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>형틀</t>
+        </is>
+      </c>
       <c r="F16" t="inlineStr">
         <is>
           <t>기타</t>
@@ -1385,7 +1406,6 @@
           <t>UDM9790</t>
         </is>
       </c>
-      <c r="P16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1400,7 +1420,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>11층</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -1408,7 +1428,11 @@
           <t>A</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr"/>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>형틀</t>
+        </is>
+      </c>
       <c r="F17" t="inlineStr">
         <is>
           <t>바닥 및 보</t>
@@ -1443,7 +1467,6 @@
           <t>HMT9220</t>
         </is>
       </c>
-      <c r="P17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1458,7 +1481,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>11층</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1466,7 +1489,11 @@
           <t>A</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr"/>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>형틀</t>
+        </is>
+      </c>
       <c r="F18" t="inlineStr">
         <is>
           <t>코어 벽체</t>
@@ -1501,7 +1528,6 @@
           <t>WFA7876</t>
         </is>
       </c>
-      <c r="P18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1516,7 +1542,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>11층</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1524,7 +1550,11 @@
           <t>C</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr"/>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>형틀</t>
+        </is>
+      </c>
       <c r="F19" t="inlineStr">
         <is>
           <t>바닥 및 보</t>
@@ -1559,7 +1589,6 @@
           <t>TBS7596</t>
         </is>
       </c>
-      <c r="P19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1621,7 +1650,6 @@
           <t>TUX5148</t>
         </is>
       </c>
-      <c r="P20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1683,7 +1711,6 @@
           <t>ZOT9439</t>
         </is>
       </c>
-      <c r="P21" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
